--- a/Data/TephraDataBase_Standards.xlsx
+++ b/Data/TephraDataBase_Standards.xlsx
@@ -24,49 +24,25 @@
     <t>SiO2</t>
   </si>
   <si>
-    <t>σ_SiO2</t>
-  </si>
-  <si>
     <t>TiO2</t>
-  </si>
-  <si>
-    <t>σ_TiO2</t>
   </si>
   <si>
     <t>Al2O3</t>
   </si>
   <si>
-    <t>σ_Al2O3</t>
-  </si>
-  <si>
     <t>MnO</t>
-  </si>
-  <si>
-    <t>σ_MnO</t>
   </si>
   <si>
     <t>MgO</t>
   </si>
   <si>
-    <t>σ_MgO</t>
-  </si>
-  <si>
     <t>CaO</t>
-  </si>
-  <si>
-    <t>σ_CaO</t>
   </si>
   <si>
     <t>Na2O</t>
   </si>
   <si>
-    <t>σ_Na2O</t>
-  </si>
-  <si>
     <t>K2O</t>
-  </si>
-  <si>
-    <t>σ_K2O</t>
   </si>
   <si>
     <t>P2O5</t>
@@ -75,157 +51,79 @@
     <t>Rb</t>
   </si>
   <si>
-    <t>σ_Rb</t>
-  </si>
-  <si>
     <t>Sr</t>
-  </si>
-  <si>
-    <t>σ_Sr</t>
   </si>
   <si>
     <t>Y</t>
   </si>
   <si>
-    <t>σ_Y</t>
-  </si>
-  <si>
     <t>Zr</t>
-  </si>
-  <si>
-    <t>σ_Zr</t>
   </si>
   <si>
     <t>Nb</t>
   </si>
   <si>
-    <t>σ_Nb</t>
-  </si>
-  <si>
     <t>Cs</t>
-  </si>
-  <si>
-    <t>σ_Cs</t>
   </si>
   <si>
     <t>Ba</t>
   </si>
   <si>
-    <t>σ_Ba</t>
-  </si>
-  <si>
     <t>La</t>
-  </si>
-  <si>
-    <t>σ_La</t>
   </si>
   <si>
     <t>Ce</t>
   </si>
   <si>
-    <t>σ_Ce</t>
-  </si>
-  <si>
     <t>Pr</t>
-  </si>
-  <si>
-    <t>σ_Pr</t>
   </si>
   <si>
     <t>Nd</t>
   </si>
   <si>
-    <t>σ_Nd</t>
-  </si>
-  <si>
     <t>Sm</t>
-  </si>
-  <si>
-    <t>σ_Sm</t>
   </si>
   <si>
     <t>Eu</t>
   </si>
   <si>
-    <t>σ_Eu</t>
-  </si>
-  <si>
     <t>Gd</t>
-  </si>
-  <si>
-    <t>σ_Gd</t>
   </si>
   <si>
     <t>Tb</t>
   </si>
   <si>
-    <t>σ_Tb</t>
-  </si>
-  <si>
     <t>Dy</t>
-  </si>
-  <si>
-    <t>σ_Dy</t>
   </si>
   <si>
     <t>Ho</t>
   </si>
   <si>
-    <t>σ_Ho</t>
-  </si>
-  <si>
     <t>Er</t>
-  </si>
-  <si>
-    <t>σ_Er</t>
   </si>
   <si>
     <t>Tm</t>
   </si>
   <si>
-    <t>σ_Tm</t>
-  </si>
-  <si>
     <t>Yb</t>
-  </si>
-  <si>
-    <t>σ_Yb</t>
   </si>
   <si>
     <t>Lu</t>
   </si>
   <si>
-    <t>σ_Lu</t>
-  </si>
-  <si>
     <t>Hf</t>
-  </si>
-  <si>
-    <t>σ_Hf</t>
   </si>
   <si>
     <t>Ta</t>
   </si>
   <si>
-    <t>σ_Ta</t>
-  </si>
-  <si>
     <t>Pb</t>
-  </si>
-  <si>
-    <t>σ_Pb</t>
   </si>
   <si>
     <t>Th</t>
   </si>
   <si>
-    <t>σ_Th</t>
-  </si>
-  <si>
     <t>U</t>
-  </si>
-  <si>
-    <t>σ_U</t>
   </si>
   <si>
     <t>ATHO-G</t>
@@ -453,9 +351,6 @@
   </si>
   <si>
     <t>28-Jun-2-10</t>
-  </si>
-  <si>
-    <t>σ1_Total</t>
   </si>
   <si>
     <t>Alloway et al., 2015; Alloway et al., 2017a</t>
@@ -839,12 +734,6 @@
     <t>MeasurementRun</t>
   </si>
   <si>
-    <t>σ_FeO*</t>
-  </si>
-  <si>
-    <t>σ_P2O5</t>
-  </si>
-  <si>
     <t>In the original publication a run date or identification is not provided so here one is provided. This was marked SY-4 (D), I gues it means "duplicate".</t>
   </si>
   <si>
@@ -1037,10 +926,121 @@
     <t>Cl</t>
   </si>
   <si>
-    <t>σ_Cl</t>
+    <t>RSD_Cl</t>
   </si>
   <si>
-    <t>RSD_Cl</t>
+    <t>SD_SiO2</t>
+  </si>
+  <si>
+    <t>SD_TiO2</t>
+  </si>
+  <si>
+    <t>SD_Al2O3</t>
+  </si>
+  <si>
+    <t>SD_FeO*</t>
+  </si>
+  <si>
+    <t>SD_MnO</t>
+  </si>
+  <si>
+    <t>SD_MgO</t>
+  </si>
+  <si>
+    <t>SD_CaO</t>
+  </si>
+  <si>
+    <t>SD_Na2O</t>
+  </si>
+  <si>
+    <t>SD_K2O</t>
+  </si>
+  <si>
+    <t>SD_P2O5</t>
+  </si>
+  <si>
+    <t>SD_Cl</t>
+  </si>
+  <si>
+    <t>SD1_Total</t>
+  </si>
+  <si>
+    <t>SD_Rb</t>
+  </si>
+  <si>
+    <t>SD_Sr</t>
+  </si>
+  <si>
+    <t>SD_Y</t>
+  </si>
+  <si>
+    <t>SD_Zr</t>
+  </si>
+  <si>
+    <t>SD_Nb</t>
+  </si>
+  <si>
+    <t>SD_Cs</t>
+  </si>
+  <si>
+    <t>SD_Ba</t>
+  </si>
+  <si>
+    <t>SD_La</t>
+  </si>
+  <si>
+    <t>SD_Ce</t>
+  </si>
+  <si>
+    <t>SD_Pr</t>
+  </si>
+  <si>
+    <t>SD_Nd</t>
+  </si>
+  <si>
+    <t>SD_Sm</t>
+  </si>
+  <si>
+    <t>SD_Eu</t>
+  </si>
+  <si>
+    <t>SD_Gd</t>
+  </si>
+  <si>
+    <t>SD_Tb</t>
+  </si>
+  <si>
+    <t>SD_Dy</t>
+  </si>
+  <si>
+    <t>SD_Ho</t>
+  </si>
+  <si>
+    <t>SD_Er</t>
+  </si>
+  <si>
+    <t>SD_Tm</t>
+  </si>
+  <si>
+    <t>SD_Yb</t>
+  </si>
+  <si>
+    <t>SD_Lu</t>
+  </si>
+  <si>
+    <t>SD_Hf</t>
+  </si>
+  <si>
+    <t>SD_Ta</t>
+  </si>
+  <si>
+    <t>SD_Pb</t>
+  </si>
+  <si>
+    <t>SD_Th</t>
+  </si>
+  <si>
+    <t>SD_U</t>
   </si>
 </sst>
 </file>
@@ -2143,9 +2143,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FF10535"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AL2" sqref="AL2"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2248,366 +2248,366 @@
   <sheetData>
     <row r="1" spans="1:118" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>202</v>
+        <v>167</v>
       </c>
       <c r="C1" s="68" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="M1" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="R1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="L1" s="3" t="s">
+      <c r="S1" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="U1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="V1" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="X1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="P1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AN1" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="AO1" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP1" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="AQ1" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="Q1" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="X1" s="3" t="s">
+      <c r="AR1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="AS1" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="AT1" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="AU1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="Z1" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AV1" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="AW1" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="AX1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AY1" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="AZ1" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="BA1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="AC1" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="AD1" s="3" t="s">
+      <c r="BB1" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="BC1" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="BD1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="BE1" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="BF1" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="BG1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="AF1" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="AG1" s="3" t="s">
+      <c r="BH1" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="BI1" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="BJ1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="AH1" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="AI1" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="BK1" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="BL1" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="BM1" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="BN1" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="BO1" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="BP1" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="BQ1" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="BR1" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="BS1" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="BT1" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="BU1" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="BV1" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="BW1" s="21" t="s">
+        <v>287</v>
+      </c>
+      <c r="BX1" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="BY1" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="BZ1" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="CA1" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="CB1" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="CC1" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="CD1" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="CE1" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="CF1" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="CG1" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="CH1" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="CI1" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="CJ1" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="CK1" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="CL1" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="CM1" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="CN1" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="CO1" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="CP1" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="CQ1" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="CR1" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="CS1" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="CT1" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="CU1" s="21" t="s">
+        <v>295</v>
+      </c>
+      <c r="CV1" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="CW1" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="CX1" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="CY1" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="CZ1" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="DA1" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="DB1" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="DC1" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="DD1" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="DE1" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="DF1" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="DG1" s="21" t="s">
         <v>299</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="DH1" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="DI1" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="DJ1" s="21" t="s">
         <v>300</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="DK1" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="DL1" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="DM1" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="AM1" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="AN1" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="AO1" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="AP1" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="AQ1" s="21" t="s">
-        <v>271</v>
-      </c>
-      <c r="AR1" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="AS1" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="AT1" s="21" t="s">
-        <v>272</v>
-      </c>
-      <c r="AU1" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="AV1" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="AW1" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="AX1" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="AY1" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="AZ1" s="21" t="s">
-        <v>274</v>
-      </c>
-      <c r="BA1" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="BB1" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="BC1" s="21" t="s">
-        <v>275</v>
-      </c>
-      <c r="BD1" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="BE1" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="BF1" s="21" t="s">
-        <v>276</v>
-      </c>
-      <c r="BG1" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="BH1" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="BI1" s="21" t="s">
-        <v>277</v>
-      </c>
-      <c r="BJ1" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="BK1" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="BL1" s="21" t="s">
-        <v>278</v>
-      </c>
-      <c r="BM1" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="BN1" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="BO1" s="21" t="s">
-        <v>279</v>
-      </c>
-      <c r="BP1" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="BQ1" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="BR1" s="21" t="s">
-        <v>280</v>
-      </c>
-      <c r="BS1" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="BT1" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="BU1" s="21" t="s">
-        <v>296</v>
-      </c>
-      <c r="BV1" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="BW1" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="BX1" s="21" t="s">
-        <v>281</v>
-      </c>
-      <c r="BY1" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="BZ1" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="CA1" s="21" t="s">
-        <v>282</v>
-      </c>
-      <c r="CB1" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="CC1" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="CD1" s="21" t="s">
-        <v>283</v>
-      </c>
-      <c r="CE1" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="CF1" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="CG1" s="21" t="s">
-        <v>284</v>
-      </c>
-      <c r="CH1" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="CI1" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="CJ1" s="21" t="s">
-        <v>285</v>
-      </c>
-      <c r="CK1" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="CL1" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="CM1" s="21" t="s">
-        <v>286</v>
-      </c>
-      <c r="CN1" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="CO1" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="CP1" s="21" t="s">
-        <v>287</v>
-      </c>
-      <c r="CQ1" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="CR1" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="CS1" s="21" t="s">
-        <v>288</v>
-      </c>
-      <c r="CT1" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="CU1" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="CV1" s="21" t="s">
-        <v>289</v>
-      </c>
-      <c r="CW1" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="CX1" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="CY1" s="21" t="s">
-        <v>290</v>
-      </c>
-      <c r="CZ1" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="DA1" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="DB1" s="21" t="s">
-        <v>291</v>
-      </c>
-      <c r="DC1" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="DD1" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="DE1" s="21" t="s">
-        <v>292</v>
-      </c>
-      <c r="DF1" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="DG1" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="DH1" s="21" t="s">
-        <v>293</v>
-      </c>
-      <c r="DI1" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="DJ1" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="DK1" s="21" t="s">
-        <v>294</v>
-      </c>
-      <c r="DL1" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="DM1" s="21" t="s">
-        <v>68</v>
-      </c>
       <c r="DN1" s="1" t="s">
-        <v>295</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:118" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="C2" s="19">
         <v>100415</v>
@@ -2804,10 +2804,10 @@
     </row>
     <row r="3" spans="1:118" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="C3" s="19">
         <v>100415</v>
@@ -3004,10 +3004,10 @@
     </row>
     <row r="4" spans="1:118" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>205</v>
+        <v>170</v>
       </c>
       <c r="C4" s="19">
         <v>100415</v>
@@ -3204,10 +3204,10 @@
     </row>
     <row r="5" spans="1:118" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="C5" s="19">
         <v>220115</v>
@@ -3404,10 +3404,10 @@
     </row>
     <row r="6" spans="1:118" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>205</v>
+        <v>170</v>
       </c>
       <c r="C6" s="19">
         <v>220115</v>
@@ -3604,10 +3604,10 @@
     </row>
     <row r="7" spans="1:118" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="C7" s="19">
         <v>220115</v>
@@ -3804,10 +3804,10 @@
     </row>
     <row r="8" spans="1:118" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="C8" s="19">
         <v>230115</v>
@@ -4005,10 +4005,10 @@
     </row>
     <row r="9" spans="1:118" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>205</v>
+        <v>170</v>
       </c>
       <c r="C9" s="19">
         <v>230115</v>
@@ -4205,10 +4205,10 @@
     </row>
     <row r="10" spans="1:118" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="C10" s="19">
         <v>230115</v>
@@ -4405,13 +4405,13 @@
     </row>
     <row r="11" spans="1:118" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="C11" s="69" t="s">
-        <v>257</v>
+        <v>220</v>
       </c>
       <c r="E11" s="13">
         <v>5</v>
@@ -4605,13 +4605,13 @@
     </row>
     <row r="12" spans="1:118" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>205</v>
+        <v>170</v>
       </c>
       <c r="C12" s="69" t="s">
-        <v>257</v>
+        <v>220</v>
       </c>
       <c r="E12" s="13">
         <v>6</v>
@@ -4805,13 +4805,13 @@
     </row>
     <row r="13" spans="1:118" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="C13" s="69" t="s">
-        <v>257</v>
+        <v>220</v>
       </c>
       <c r="E13" s="13">
         <v>4</v>
@@ -5005,13 +5005,13 @@
     </row>
     <row r="14" spans="1:118" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="C14" s="69" t="s">
-        <v>257</v>
+        <v>220</v>
       </c>
       <c r="E14" s="13">
         <v>5</v>
@@ -5205,17 +5205,17 @@
     </row>
     <row r="15" spans="1:118" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="C15" s="69" t="s">
-        <v>258</v>
+        <v>221</v>
       </c>
       <c r="D15" s="14"/>
       <c r="E15" s="14" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
       <c r="F15" s="15">
         <v>63.692900000000009</v>
@@ -5406,17 +5406,17 @@
     </row>
     <row r="16" spans="1:118" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>205</v>
+        <v>170</v>
       </c>
       <c r="C16" s="69" t="s">
-        <v>258</v>
+        <v>221</v>
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="14" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
       <c r="F16" s="15">
         <v>51.866712500000006</v>
@@ -5607,17 +5607,17 @@
     </row>
     <row r="17" spans="1:117" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="C17" s="69" t="s">
-        <v>258</v>
+        <v>221</v>
       </c>
       <c r="D17" s="14"/>
       <c r="E17" s="14" t="s">
-        <v>161</v>
+        <v>126</v>
       </c>
       <c r="F17" s="15">
         <v>50.554214285714288</v>
@@ -5808,17 +5808,17 @@
     </row>
     <row r="18" spans="1:117" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="C18" s="69" t="s">
-        <v>258</v>
+        <v>221</v>
       </c>
       <c r="D18" s="14"/>
       <c r="E18" s="14" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
       <c r="F18" s="15">
         <v>75.246424999999988</v>
@@ -6009,10 +6009,10 @@
     </row>
     <row r="19" spans="1:117" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="C19" s="19">
         <v>100912</v>
@@ -6209,10 +6209,10 @@
     </row>
     <row r="20" spans="1:117" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>205</v>
+        <v>170</v>
       </c>
       <c r="C20" s="19">
         <v>100912</v>
@@ -6409,10 +6409,10 @@
     </row>
     <row r="21" spans="1:117" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="C21" s="19">
         <v>100912</v>
@@ -6609,10 +6609,10 @@
     </row>
     <row r="22" spans="1:117" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="C22" s="19">
         <v>100912</v>
@@ -6809,17 +6809,17 @@
     </row>
     <row r="23" spans="1:117" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="C23" s="19">
         <v>11112</v>
       </c>
       <c r="D23" s="14"/>
       <c r="E23" s="14" t="s">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="F23" s="15">
         <v>63.901474999999991</v>
@@ -7010,17 +7010,17 @@
     </row>
     <row r="24" spans="1:117" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="C24" s="19">
         <v>11112</v>
       </c>
       <c r="D24" s="14"/>
       <c r="E24" s="14" t="s">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="F24" s="15">
         <v>75.753399999999999</v>
@@ -7211,17 +7211,17 @@
     </row>
     <row r="25" spans="1:117" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="C25" s="19">
         <v>11112</v>
       </c>
       <c r="D25" s="14"/>
       <c r="E25" s="14" t="s">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="F25" s="15">
         <v>45.280675000000002</v>
@@ -7412,17 +7412,17 @@
     </row>
     <row r="26" spans="1:117" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="C26" s="19">
         <v>11112</v>
       </c>
       <c r="D26" s="14"/>
       <c r="E26" s="14" t="s">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="F26" s="15">
         <v>58.185950000000005</v>
@@ -7613,17 +7613,17 @@
     </row>
     <row r="27" spans="1:117" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="13" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="C27" s="19">
         <v>11112</v>
       </c>
       <c r="D27" s="14"/>
       <c r="E27" s="14" t="s">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="F27" s="15">
         <v>50.357925000000002</v>
@@ -7814,17 +7814,17 @@
     </row>
     <row r="28" spans="1:117" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="13" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="C28" s="69" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="D28" s="14"/>
       <c r="E28" s="14" t="s">
-        <v>164</v>
+        <v>129</v>
       </c>
       <c r="F28" s="15">
         <v>64.137369230769224</v>
@@ -8015,17 +8015,17 @@
     </row>
     <row r="29" spans="1:117" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="13" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="C29" s="69" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="D29" s="14"/>
       <c r="E29" s="14" t="s">
-        <v>164</v>
+        <v>129</v>
       </c>
       <c r="F29" s="15">
         <v>75.524615384615387</v>
@@ -8216,17 +8216,17 @@
     </row>
     <row r="30" spans="1:117" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="13" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="C30" s="69" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="D30" s="14"/>
       <c r="E30" s="14" t="s">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="F30" s="15">
         <v>46.317799999999998</v>
@@ -8417,17 +8417,17 @@
     </row>
     <row r="31" spans="1:117" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="13" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="C31" s="69" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="D31" s="14"/>
       <c r="E31" s="14" t="s">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="F31" s="15">
         <v>57.731583333333326</v>
@@ -8618,17 +8618,17 @@
     </row>
     <row r="32" spans="1:117" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="13" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="C32" s="69" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="D32" s="14"/>
       <c r="E32" s="14" t="s">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="F32" s="15">
         <v>51.186341666666664</v>
@@ -8819,17 +8819,17 @@
     </row>
     <row r="33" spans="1:117" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="13" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="C33" s="19">
         <v>61112</v>
       </c>
       <c r="D33" s="14"/>
       <c r="E33" s="14" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
       <c r="F33" s="15">
         <v>62.907933333333325</v>
@@ -9020,17 +9020,17 @@
     </row>
     <row r="34" spans="1:117" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="13" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="C34" s="19">
         <v>61112</v>
       </c>
       <c r="D34" s="14"/>
       <c r="E34" s="14" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
       <c r="F34" s="15">
         <v>74.393100000000004</v>
@@ -9221,17 +9221,17 @@
     </row>
     <row r="35" spans="1:117" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="13" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="C35" s="19">
         <v>61112</v>
       </c>
       <c r="D35" s="14"/>
       <c r="E35" s="14" t="s">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="F35" s="15">
         <v>45.196700000000007</v>
@@ -9422,17 +9422,17 @@
     </row>
     <row r="36" spans="1:117" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="13" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="C36" s="19">
         <v>61112</v>
       </c>
       <c r="D36" s="14"/>
       <c r="E36" s="14" t="s">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="F36" s="15">
         <v>56.269850000000005</v>
@@ -9623,17 +9623,17 @@
     </row>
     <row r="37" spans="1:117" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="13" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="C37" s="19">
         <v>61112</v>
       </c>
       <c r="D37" s="14"/>
       <c r="E37" s="14" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
       <c r="F37" s="15">
         <v>49.816566666666667</v>
@@ -9824,17 +9824,17 @@
     </row>
     <row r="38" spans="1:117" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="13" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="C38" s="69" t="s">
-        <v>232</v>
+        <v>197</v>
       </c>
       <c r="D38" s="14"/>
       <c r="E38" s="14" t="s">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="F38" s="15">
         <v>62.766674999999992</v>
@@ -10025,17 +10025,17 @@
     </row>
     <row r="39" spans="1:117" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="13" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="C39" s="69" t="s">
-        <v>232</v>
+        <v>197</v>
       </c>
       <c r="D39" s="14"/>
       <c r="E39" s="14" t="s">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="F39" s="15">
         <v>74.219400000000007</v>
@@ -10226,17 +10226,17 @@
     </row>
     <row r="40" spans="1:117" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="13" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="C40" s="69" t="s">
-        <v>232</v>
+        <v>197</v>
       </c>
       <c r="D40" s="14"/>
       <c r="E40" s="14" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
       <c r="F40" s="15">
         <v>45.300899999999992</v>
@@ -10427,17 +10427,17 @@
     </row>
     <row r="41" spans="1:117" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="13" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="C41" s="69" t="s">
-        <v>232</v>
+        <v>197</v>
       </c>
       <c r="D41" s="14"/>
       <c r="E41" s="14" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
       <c r="F41" s="15">
         <v>56.148600000000009</v>
@@ -10628,17 +10628,17 @@
     </row>
     <row r="42" spans="1:117" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="13" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="C42" s="69" t="s">
-        <v>232</v>
+        <v>197</v>
       </c>
       <c r="D42" s="14"/>
       <c r="E42" s="14" t="s">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="F42" s="15">
         <v>49.883224999999996</v>
@@ -10829,17 +10829,17 @@
     </row>
     <row r="43" spans="1:117" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="13" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="C43" s="19">
         <v>40413</v>
       </c>
       <c r="D43" s="14"/>
       <c r="E43" s="14" t="s">
-        <v>161</v>
+        <v>126</v>
       </c>
       <c r="F43" s="15">
         <v>74.909487499999997</v>
@@ -11030,17 +11030,17 @@
     </row>
     <row r="44" spans="1:117" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="13" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="C44" s="19">
         <v>40413</v>
       </c>
       <c r="D44" s="14"/>
       <c r="E44" s="14" t="s">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="F44" s="15">
         <v>63.257800000000003</v>
@@ -11231,17 +11231,17 @@
     </row>
     <row r="45" spans="1:117" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="13" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="C45" s="19">
         <v>40413</v>
       </c>
       <c r="D45" s="14"/>
       <c r="E45" s="14" t="s">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c r="F45" s="15">
         <v>58.478859999999997</v>
@@ -11432,17 +11432,17 @@
     </row>
     <row r="46" spans="1:117" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="13" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="C46" s="69" t="s">
-        <v>216</v>
+        <v>181</v>
       </c>
       <c r="D46" s="14"/>
       <c r="E46" s="14" t="s">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c r="F46" s="15">
         <v>74.736580000000004</v>
@@ -11633,17 +11633,17 @@
     </row>
     <row r="47" spans="1:117" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="13" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="C47" s="69" t="s">
-        <v>216</v>
+        <v>181</v>
       </c>
       <c r="D47" s="14"/>
       <c r="E47" s="14" t="s">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="F47" s="15">
         <v>63.10915</v>
@@ -11834,17 +11834,17 @@
     </row>
     <row r="48" spans="1:117" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="13" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="C48" s="69" t="s">
-        <v>216</v>
+        <v>181</v>
       </c>
       <c r="D48" s="14"/>
       <c r="E48" s="14" t="s">
-        <v>161</v>
+        <v>126</v>
       </c>
       <c r="F48" s="15">
         <v>58.302342857142868</v>
@@ -12035,17 +12035,17 @@
     </row>
     <row r="49" spans="1:117" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="13" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="C49" s="69" t="s">
-        <v>216</v>
+        <v>181</v>
       </c>
       <c r="D49" s="14"/>
       <c r="E49" s="14" t="s">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c r="F49" s="15">
         <v>50.220599999999997</v>
@@ -12236,13 +12236,13 @@
     </row>
     <row r="50" spans="1:117" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="13" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="C50" s="69" t="s">
-        <v>218</v>
+        <v>183</v>
       </c>
       <c r="D50" s="14"/>
       <c r="E50" s="19">
@@ -12437,13 +12437,13 @@
     </row>
     <row r="51" spans="1:117" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="13" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="C51" s="69" t="s">
-        <v>218</v>
+        <v>183</v>
       </c>
       <c r="D51" s="14"/>
       <c r="E51" s="19">
@@ -12638,13 +12638,13 @@
     </row>
     <row r="52" spans="1:117" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="13" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="C52" s="69" t="s">
-        <v>218</v>
+        <v>183</v>
       </c>
       <c r="D52" s="14"/>
       <c r="E52" s="19">
@@ -12839,13 +12839,13 @@
     </row>
     <row r="53" spans="1:117" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="13" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="C53" s="69" t="s">
-        <v>218</v>
+        <v>183</v>
       </c>
       <c r="D53" s="14"/>
       <c r="E53" s="19">
@@ -13040,13 +13040,13 @@
     </row>
     <row r="54" spans="1:117" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="13" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="C54" s="69" t="s">
-        <v>215</v>
+        <v>180</v>
       </c>
       <c r="E54" s="13">
         <v>7</v>
@@ -13240,13 +13240,13 @@
     </row>
     <row r="55" spans="1:117" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="13" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="C55" s="69" t="s">
-        <v>215</v>
+        <v>180</v>
       </c>
       <c r="E55" s="13">
         <v>6</v>
@@ -13440,13 +13440,13 @@
     </row>
     <row r="56" spans="1:117" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="13" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="C56" s="69" t="s">
-        <v>215</v>
+        <v>180</v>
       </c>
       <c r="E56" s="13">
         <v>6</v>
@@ -13640,13 +13640,13 @@
     </row>
     <row r="57" spans="1:117" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="13" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="C57" s="69" t="s">
-        <v>215</v>
+        <v>180</v>
       </c>
       <c r="E57" s="13">
         <v>6</v>
@@ -13840,13 +13840,13 @@
     </row>
     <row r="58" spans="1:117" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="13" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="C58" s="69" t="s">
-        <v>213</v>
+        <v>178</v>
       </c>
       <c r="E58" s="13">
         <v>7</v>
@@ -14040,13 +14040,13 @@
     </row>
     <row r="59" spans="1:117" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="13" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="C59" s="69" t="s">
-        <v>213</v>
+        <v>178</v>
       </c>
       <c r="E59" s="13">
         <v>7</v>
@@ -14240,13 +14240,13 @@
     </row>
     <row r="60" spans="1:117" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="13" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="C60" s="69" t="s">
-        <v>213</v>
+        <v>178</v>
       </c>
       <c r="E60" s="13">
         <v>4</v>
@@ -14440,13 +14440,13 @@
     </row>
     <row r="61" spans="1:117" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="13" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="C61" s="69" t="s">
-        <v>213</v>
+        <v>178</v>
       </c>
       <c r="E61" s="13">
         <v>4</v>
@@ -14640,13 +14640,13 @@
     </row>
     <row r="62" spans="1:117" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="13" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>205</v>
+        <v>170</v>
       </c>
       <c r="C62" s="69" t="s">
-        <v>213</v>
+        <v>178</v>
       </c>
       <c r="E62" s="13">
         <v>4</v>
@@ -14841,13 +14841,13 @@
     </row>
     <row r="63" spans="1:117" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="13" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="C63" s="69" t="s">
-        <v>231</v>
+        <v>196</v>
       </c>
       <c r="E63" s="13">
         <v>5</v>
@@ -15041,13 +15041,13 @@
     </row>
     <row r="64" spans="1:117" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="13" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="C64" s="69" t="s">
-        <v>231</v>
+        <v>196</v>
       </c>
       <c r="E64" s="13">
         <v>5</v>
@@ -15241,13 +15241,13 @@
     </row>
     <row r="65" spans="1:117" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="13" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="C65" s="69" t="s">
-        <v>231</v>
+        <v>196</v>
       </c>
       <c r="E65" s="13">
         <v>5</v>
@@ -15441,13 +15441,13 @@
     </row>
     <row r="66" spans="1:117" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="13" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>205</v>
+        <v>170</v>
       </c>
       <c r="C66" s="69" t="s">
-        <v>231</v>
+        <v>196</v>
       </c>
       <c r="E66" s="13">
         <v>5</v>
@@ -15641,10 +15641,10 @@
     </row>
     <row r="67" spans="1:117" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="13" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="C67" s="19">
         <v>221013</v>
@@ -15841,10 +15841,10 @@
     </row>
     <row r="68" spans="1:117" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="13" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>205</v>
+        <v>170</v>
       </c>
       <c r="C68" s="19">
         <v>221013</v>
@@ -16041,10 +16041,10 @@
     </row>
     <row r="69" spans="1:117" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="13" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="C69" s="19">
         <v>221013</v>
@@ -16241,10 +16241,10 @@
     </row>
     <row r="70" spans="1:117" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="13" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="C70" s="19">
         <v>221013</v>
@@ -16441,13 +16441,13 @@
     </row>
     <row r="71" spans="1:117" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="13" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="C71" s="69" t="s">
-        <v>229</v>
+        <v>194</v>
       </c>
       <c r="E71" s="13">
         <v>20</v>
@@ -16641,13 +16641,13 @@
     </row>
     <row r="72" spans="1:117" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="13" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="C72" s="69" t="s">
-        <v>229</v>
+        <v>194</v>
       </c>
       <c r="E72" s="13">
         <v>9</v>
@@ -16841,13 +16841,13 @@
     </row>
     <row r="73" spans="1:117" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="13" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>205</v>
+        <v>170</v>
       </c>
       <c r="C73" s="69" t="s">
-        <v>229</v>
+        <v>194</v>
       </c>
       <c r="E73" s="13">
         <v>19</v>
@@ -17041,13 +17041,13 @@
     </row>
     <row r="74" spans="1:117" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="13" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="C74" s="69" t="s">
-        <v>229</v>
+        <v>194</v>
       </c>
       <c r="E74" s="13">
         <v>20</v>
@@ -17241,13 +17241,13 @@
     </row>
     <row r="75" spans="1:117" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="13" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="C75" s="69" t="s">
-        <v>219</v>
+        <v>184</v>
       </c>
       <c r="E75" s="13">
         <v>7</v>
@@ -17441,13 +17441,13 @@
     </row>
     <row r="76" spans="1:117" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="13" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="C76" s="69" t="s">
-        <v>219</v>
+        <v>184</v>
       </c>
       <c r="E76" s="13">
         <v>3</v>
@@ -17641,13 +17641,13 @@
     </row>
     <row r="77" spans="1:117" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="13" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="C77" s="69" t="s">
-        <v>219</v>
+        <v>184</v>
       </c>
       <c r="E77" s="13">
         <v>7</v>
@@ -17841,13 +17841,13 @@
     </row>
     <row r="78" spans="1:117" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="13" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="C78" s="69" t="s">
-        <v>221</v>
+        <v>186</v>
       </c>
       <c r="E78" s="13">
         <v>3</v>
@@ -18041,13 +18041,13 @@
     </row>
     <row r="79" spans="1:117" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="13" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="C79" s="69" t="s">
-        <v>221</v>
+        <v>186</v>
       </c>
       <c r="E79" s="13">
         <v>3</v>
@@ -18241,13 +18241,13 @@
     </row>
     <row r="80" spans="1:117" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="13" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="C80" s="69" t="s">
-        <v>221</v>
+        <v>186</v>
       </c>
       <c r="E80" s="13">
         <v>3</v>
@@ -18441,10 +18441,10 @@
     </row>
     <row r="81" spans="1:117" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="13" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="C81" s="19">
         <v>140214</v>
@@ -18641,10 +18641,10 @@
     </row>
     <row r="82" spans="1:117" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="13" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="C82" s="19">
         <v>140214</v>
@@ -18841,10 +18841,10 @@
     </row>
     <row r="83" spans="1:117" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="13" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="C83" s="19">
         <v>140214</v>
@@ -19041,13 +19041,13 @@
     </row>
     <row r="84" spans="1:117" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="13" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="C84" s="69" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="E84" s="13">
         <v>13</v>
@@ -19241,13 +19241,13 @@
     </row>
     <row r="85" spans="1:117" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="13" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="C85" s="69" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="E85" s="13">
         <v>14</v>
@@ -19441,13 +19441,13 @@
     </row>
     <row r="86" spans="1:117" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="13" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B86" s="13" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="C86" s="69" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="E86" s="13">
         <v>14</v>
@@ -19641,10 +19641,10 @@
     </row>
     <row r="87" spans="1:117" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="13" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="C87" s="69">
         <v>200314</v>
@@ -19841,10 +19841,10 @@
     </row>
     <row r="88" spans="1:117" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="13" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="C88" s="69">
         <v>200314</v>
@@ -20041,10 +20041,10 @@
     </row>
     <row r="89" spans="1:117" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="13" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="C89" s="69">
         <v>200314</v>
@@ -20241,13 +20241,13 @@
     </row>
     <row r="90" spans="1:117" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="13" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="C90" s="69" t="s">
-        <v>298</v>
+        <v>261</v>
       </c>
       <c r="E90" s="13">
         <v>28</v>
@@ -20441,13 +20441,13 @@
     </row>
     <row r="91" spans="1:117" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="13" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B91" s="13" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="C91" s="69" t="s">
-        <v>298</v>
+        <v>261</v>
       </c>
       <c r="E91" s="13">
         <v>29</v>
@@ -20641,13 +20641,13 @@
     </row>
     <row r="92" spans="1:117" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="13" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B92" s="13" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="C92" s="69" t="s">
-        <v>298</v>
+        <v>261</v>
       </c>
       <c r="E92" s="13">
         <v>27</v>
@@ -20841,13 +20841,13 @@
     </row>
     <row r="93" spans="1:117" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="13" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="C93" s="69" t="s">
-        <v>228</v>
+        <v>193</v>
       </c>
       <c r="E93" s="13">
         <v>9</v>
@@ -21041,13 +21041,13 @@
     </row>
     <row r="94" spans="1:117" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="13" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>205</v>
+        <v>170</v>
       </c>
       <c r="C94" s="69" t="s">
-        <v>228</v>
+        <v>193</v>
       </c>
       <c r="E94" s="13">
         <v>9</v>
@@ -21241,13 +21241,13 @@
     </row>
     <row r="95" spans="1:117" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="13" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B95" s="13" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="C95" s="69" t="s">
-        <v>228</v>
+        <v>193</v>
       </c>
       <c r="E95" s="13">
         <v>9</v>
@@ -21441,10 +21441,10 @@
     </row>
     <row r="96" spans="1:117" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="13" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B96" s="13" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="C96" s="19">
         <v>240714</v>
@@ -21641,10 +21641,10 @@
     </row>
     <row r="97" spans="1:117" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="13" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B97" s="13" t="s">
-        <v>205</v>
+        <v>170</v>
       </c>
       <c r="C97" s="19">
         <v>240714</v>
@@ -21841,10 +21841,10 @@
     </row>
     <row r="98" spans="1:117" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="13" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B98" s="13" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="C98" s="19">
         <v>240714</v>
@@ -22041,10 +22041,10 @@
     </row>
     <row r="99" spans="1:117" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A99" s="13" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B99" s="13" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="C99" s="19">
         <v>250714</v>
@@ -22241,10 +22241,10 @@
     </row>
     <row r="100" spans="1:117" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="13" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B100" s="13" t="s">
-        <v>205</v>
+        <v>170</v>
       </c>
       <c r="C100" s="19">
         <v>250714</v>
@@ -22441,10 +22441,10 @@
     </row>
     <row r="101" spans="1:117" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="13" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B101" s="13" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="C101" s="19">
         <v>250714</v>
@@ -22641,10 +22641,10 @@
     </row>
     <row r="102" spans="1:117" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="13" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B102" s="13" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="C102" s="19">
         <v>190115</v>
@@ -22841,10 +22841,10 @@
     </row>
     <row r="103" spans="1:117" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="13" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B103" s="13" t="s">
-        <v>205</v>
+        <v>170</v>
       </c>
       <c r="C103" s="19">
         <v>190115</v>
@@ -23041,10 +23041,10 @@
     </row>
     <row r="104" spans="1:117" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="13" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B104" s="13" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="C104" s="19">
         <v>190115</v>
@@ -23241,13 +23241,13 @@
     </row>
     <row r="105" spans="1:117" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="13" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B105" s="13" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="C105" s="69" t="s">
-        <v>214</v>
+        <v>179</v>
       </c>
       <c r="E105" s="13">
         <v>18</v>
@@ -23441,13 +23441,13 @@
     </row>
     <row r="106" spans="1:117" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="13" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B106" s="13" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="C106" s="69" t="s">
-        <v>214</v>
+        <v>179</v>
       </c>
       <c r="E106" s="13">
         <v>18</v>
@@ -23641,13 +23641,13 @@
     </row>
     <row r="107" spans="1:117" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A107" s="13" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B107" s="13" t="s">
-        <v>205</v>
+        <v>170</v>
       </c>
       <c r="C107" s="69" t="s">
-        <v>214</v>
+        <v>179</v>
       </c>
       <c r="E107" s="13">
         <v>18</v>
@@ -23841,13 +23841,13 @@
     </row>
     <row r="108" spans="1:117" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A108" s="13" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B108" s="13" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="C108" s="69" t="s">
-        <v>217</v>
+        <v>182</v>
       </c>
       <c r="E108" s="13">
         <v>15</v>
@@ -24041,13 +24041,13 @@
     </row>
     <row r="109" spans="1:117" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A109" s="13" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>205</v>
+        <v>170</v>
       </c>
       <c r="C109" s="69" t="s">
-        <v>217</v>
+        <v>182</v>
       </c>
       <c r="E109" s="13">
         <v>15</v>
@@ -24241,13 +24241,13 @@
     </row>
     <row r="110" spans="1:117" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110" s="13" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B110" s="13" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="C110" s="69" t="s">
-        <v>217</v>
+        <v>182</v>
       </c>
       <c r="E110" s="13">
         <v>15</v>
@@ -24441,16 +24441,16 @@
     </row>
     <row r="111" spans="1:117" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="6" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="C111" s="70" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="F111" s="7"/>
       <c r="G111" s="7"/>
@@ -24503,12 +24503,12 @@
       <c r="AZ111" s="25"/>
       <c r="BA111" s="25"/>
       <c r="BB111" s="25" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="BC111" s="25"/>
       <c r="BD111" s="25"/>
       <c r="BE111" s="25" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="BF111" s="25"/>
       <c r="BG111" s="25"/>
@@ -24518,12 +24518,12 @@
       <c r="BI111" s="25"/>
       <c r="BJ111" s="25"/>
       <c r="BK111" s="25" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="BL111" s="25"/>
       <c r="BM111" s="25"/>
       <c r="BN111" s="25" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="BO111" s="25"/>
       <c r="BP111" s="25"/>
@@ -24531,17 +24531,17 @@
       <c r="BR111" s="25"/>
       <c r="BS111" s="25"/>
       <c r="BT111" s="25" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="BU111" s="25"/>
       <c r="BV111" s="25"/>
       <c r="BW111" s="25" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="BX111" s="25"/>
       <c r="BY111" s="25"/>
       <c r="BZ111" s="25" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="CA111" s="25"/>
       <c r="CB111" s="25"/>
@@ -24549,7 +24549,7 @@
       <c r="CD111" s="25"/>
       <c r="CE111" s="25"/>
       <c r="CF111" s="25" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="CG111" s="25"/>
       <c r="CH111" s="25"/>
@@ -24566,17 +24566,17 @@
       <c r="CS111" s="25"/>
       <c r="CT111" s="25"/>
       <c r="CU111" s="25" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="CV111" s="25"/>
       <c r="CW111" s="25"/>
       <c r="CX111" s="25" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="CY111" s="25"/>
       <c r="CZ111" s="25"/>
       <c r="DA111" s="25" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="DB111" s="25"/>
       <c r="DC111" s="25"/>
@@ -24587,7 +24587,7 @@
       <c r="DH111" s="25"/>
       <c r="DI111" s="25"/>
       <c r="DJ111" s="25" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="DK111" s="25"/>
       <c r="DL111" s="25"/>
@@ -24595,13 +24595,13 @@
     </row>
     <row r="112" spans="1:117" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="9" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="B112" s="92" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="C112" s="93" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="E112" s="9">
         <v>46</v>
@@ -24787,16 +24787,16 @@
     </row>
     <row r="113" spans="1:117" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A113" s="9" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="B113" s="92" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="C113" s="95" t="s">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="F113" s="94">
         <v>54.05</v>
@@ -24935,16 +24935,16 @@
     </row>
     <row r="114" spans="1:117" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A114" s="9" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="B114" s="92" t="s">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="C114" s="95" t="s">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="E114" s="9" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="F114" s="94">
         <v>49.76</v>
@@ -25083,16 +25083,16 @@
     </row>
     <row r="115" spans="1:117" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="9" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="B115" s="92" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="C115" s="95" t="s">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="F115" s="94"/>
       <c r="G115" s="94"/>
@@ -25261,16 +25261,16 @@
     </row>
     <row r="116" spans="1:117" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="9" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="B116" s="92" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="C116" s="95" t="s">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="E116" s="9" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="F116" s="94"/>
       <c r="G116" s="94"/>
@@ -25439,16 +25439,16 @@
     </row>
     <row r="117" spans="1:117" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A117" s="16" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="B117" s="16" t="s">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="C117" s="73" t="s">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="D117" s="11" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="E117" s="11"/>
       <c r="F117" s="17">
@@ -25487,12 +25487,12 @@
       <c r="Y117" s="17"/>
       <c r="Z117" s="91"/>
       <c r="AA117" s="141" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="AB117" s="17"/>
       <c r="AC117" s="91"/>
       <c r="AD117" s="141" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="AE117" s="17"/>
       <c r="AF117" s="91"/>
@@ -25510,7 +25510,7 @@
       <c r="AP117" s="96"/>
       <c r="AQ117" s="96"/>
       <c r="AR117" s="142" t="s">
-        <v>174</v>
+        <v>139</v>
       </c>
       <c r="AS117" s="96"/>
       <c r="AT117" s="96"/>
@@ -25590,16 +25590,16 @@
     </row>
     <row r="118" spans="1:117" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A118" s="9" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="C118" s="71" t="s">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="D118" s="11" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="E118" s="11"/>
       <c r="F118" s="10"/>
@@ -25719,16 +25719,16 @@
     </row>
     <row r="119" spans="1:117" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A119" s="9" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="C119" s="71" t="s">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="D119" s="11" t="s">
-        <v>236</v>
+        <v>199</v>
       </c>
       <c r="E119" s="11"/>
       <c r="F119" s="10">
@@ -25868,16 +25868,16 @@
     </row>
     <row r="120" spans="1:117" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A120" s="9" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="C120" s="71" t="s">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="D120" s="11" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="E120" s="11"/>
       <c r="F120" s="10"/>
@@ -25997,13 +25997,13 @@
     </row>
     <row r="121" spans="1:117" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A121" s="9" t="s">
-        <v>139</v>
+        <v>104</v>
       </c>
       <c r="B121" s="97" t="s">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="C121" s="71" t="s">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="F121" s="10"/>
       <c r="G121" s="10"/>
@@ -26170,13 +26170,13 @@
     </row>
     <row r="122" spans="1:117" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A122" s="9" t="s">
-        <v>139</v>
+        <v>104</v>
       </c>
       <c r="B122" s="97" t="s">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="C122" s="71" t="s">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="F122" s="10"/>
       <c r="G122" s="10"/>
@@ -26343,16 +26343,16 @@
     </row>
     <row r="123" spans="1:117" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A123" s="9" t="s">
-        <v>139</v>
+        <v>104</v>
       </c>
       <c r="B123" s="97" t="s">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="C123" s="71" t="s">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="E123" s="9" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="F123" s="10">
         <v>50.94</v>
@@ -26490,16 +26490,16 @@
     </row>
     <row r="124" spans="1:117" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A124" s="9" t="s">
-        <v>139</v>
+        <v>104</v>
       </c>
       <c r="B124" s="97" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="C124" s="71" t="s">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="E124" s="9" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="F124" s="102">
         <v>76.709999999999994</v>
@@ -26546,7 +26546,7 @@
       <c r="AE124" s="10"/>
       <c r="AF124" s="90"/>
       <c r="AG124" s="18" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="AH124" s="10"/>
       <c r="AI124" s="90"/>
@@ -26637,13 +26637,13 @@
     </row>
     <row r="125" spans="1:117" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A125" s="9" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="B125" s="92" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="C125" s="103" t="s">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="E125" s="9">
         <v>14</v>
@@ -26835,13 +26835,13 @@
     </row>
     <row r="126" spans="1:117" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A126" s="9" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="B126" s="92" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="C126" s="103" t="s">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="E126" s="9">
         <v>14</v>
@@ -27032,13 +27032,13 @@
     </row>
     <row r="127" spans="1:117" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A127" s="9" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="B127" s="92" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="C127" s="95" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="E127" s="9">
         <v>10</v>
@@ -27230,13 +27230,13 @@
     </row>
     <row r="128" spans="1:117" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A128" s="9" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="B128" s="92" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="C128" s="95" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="E128" s="9">
         <v>10</v>
@@ -27428,13 +27428,13 @@
     </row>
     <row r="129" spans="1:118" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A129" s="9" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="B129" s="92" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="C129" s="95" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="E129" s="9">
         <v>26</v>
@@ -27626,13 +27626,13 @@
     </row>
     <row r="130" spans="1:118" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A130" s="9" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="B130" s="92" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="C130" s="95" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="E130" s="9">
         <v>26</v>
@@ -27823,13 +27823,13 @@
     </row>
     <row r="131" spans="1:118" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A131" s="9" t="s">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="B131" s="104" t="s">
-        <v>203</v>
+        <v>168</v>
       </c>
       <c r="C131" s="71" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="E131" s="9">
         <v>2</v>
@@ -28021,13 +28021,13 @@
     </row>
     <row r="132" spans="1:118" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A132" s="9" t="s">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="B132" s="104" t="s">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="C132" s="71" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="E132" s="9">
         <v>2</v>
@@ -28219,16 +28219,16 @@
     </row>
     <row r="133" spans="1:118" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A133" s="9" t="s">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>190</v>
+        <v>155</v>
       </c>
       <c r="C133" s="71" t="s">
-        <v>124</v>
+        <v>90</v>
       </c>
       <c r="D133" s="9" t="s">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="E133" s="9">
         <v>8</v>
@@ -28531,13 +28531,13 @@
     </row>
     <row r="134" spans="1:118" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A134" s="11" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="B134" s="107" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="C134" s="71" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="E134" s="9">
         <v>14</v>
@@ -28724,13 +28724,13 @@
     </row>
     <row r="135" spans="1:118" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A135" s="11" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="B135" s="110" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="C135" s="72" t="s">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="E135" s="11">
         <v>50</v>
@@ -28919,13 +28919,13 @@
     </row>
     <row r="136" spans="1:118" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A136" s="11" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="B136" s="110" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="C136" s="72" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="E136" s="11">
         <v>40</v>
@@ -29112,13 +29112,13 @@
     </row>
     <row r="137" spans="1:118" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A137" s="11" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="B137" s="110" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="C137" s="72" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="E137" s="11">
         <v>28</v>
@@ -29304,13 +29304,13 @@
     </row>
     <row r="138" spans="1:118" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A138" s="11" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="B138" s="110" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="C138" s="72" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="E138" s="11">
         <v>22</v>
@@ -29497,13 +29497,13 @@
     </row>
     <row r="139" spans="1:118" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A139" s="11" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="B139" s="11" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="C139" s="72" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="E139" s="11">
         <v>24</v>
@@ -29690,13 +29690,13 @@
     </row>
     <row r="140" spans="1:118" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A140" s="11" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="B140" s="11" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="C140" s="72" t="s">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="E140" s="11">
         <v>77</v>
@@ -29883,13 +29883,13 @@
     </row>
     <row r="141" spans="1:118" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A141" s="11" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="B141" s="107" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="C141" s="19" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="E141" s="13">
         <v>10</v>
@@ -30076,13 +30076,13 @@
     </row>
     <row r="142" spans="1:118" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A142" s="16" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="B142" s="16" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="C142" s="73" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="E142" s="16">
         <v>36</v>
@@ -30385,13 +30385,13 @@
     </row>
     <row r="143" spans="1:118" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A143" s="11" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="B143" s="16" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="C143" s="74" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="E143" s="16">
         <v>22</v>
@@ -30578,13 +30578,13 @@
     </row>
     <row r="144" spans="1:118" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A144" s="11" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="B144" s="11" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="C144" s="113" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E144" s="11">
         <v>120</v>
@@ -30771,13 +30771,13 @@
     </row>
     <row r="145" spans="1:117" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="11" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="B145" s="107" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="C145" s="71" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="E145" s="9">
         <v>24</v>
@@ -30964,13 +30964,13 @@
     </row>
     <row r="146" spans="1:117" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A146" s="11" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="B146" s="11" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="C146" s="71" t="s">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="E146" s="9">
         <v>84</v>
@@ -31157,13 +31157,13 @@
     </row>
     <row r="147" spans="1:117" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A147" s="11" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="B147" s="11" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="C147" s="71" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="E147" s="9">
         <v>69</v>
@@ -31350,13 +31350,13 @@
     </row>
     <row r="148" spans="1:117" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A148" s="11" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="B148" s="11" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="C148" s="71" t="s">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="E148" s="9">
         <v>24</v>
@@ -31543,19 +31543,19 @@
     </row>
     <row r="149" spans="1:117" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A149" s="9" t="s">
-        <v>140</v>
+        <v>105</v>
       </c>
       <c r="B149" s="64" t="s">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="C149" s="71" t="s">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c r="D149" s="9" t="s">
-        <v>270</v>
+        <v>233</v>
       </c>
       <c r="E149" s="9" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="F149" s="114">
         <v>49.95</v>
@@ -31746,16 +31746,16 @@
     </row>
     <row r="150" spans="1:117" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A150" s="9" t="s">
-        <v>140</v>
+        <v>105</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>141</v>
+        <v>106</v>
       </c>
       <c r="C150" s="71" t="s">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c r="E150" s="9" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="F150" s="114">
         <v>56.23</v>
@@ -31946,19 +31946,19 @@
     </row>
     <row r="151" spans="1:117" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A151" s="64" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="B151" s="64" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="C151" s="75" t="s">
-        <v>237</v>
+        <v>200</v>
       </c>
       <c r="D151" s="119" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="E151" s="64" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="F151" s="120">
         <v>63.508780000000002</v>
@@ -32148,19 +32148,19 @@
     </row>
     <row r="152" spans="1:117" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A152" s="64" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="B152" s="64" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="C152" s="75" t="s">
-        <v>238</v>
+        <v>201</v>
       </c>
       <c r="D152" s="119" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="E152" s="64" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="F152" s="120">
         <v>63.160480000000007</v>
@@ -32350,19 +32350,19 @@
     </row>
     <row r="153" spans="1:117" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A153" s="64" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="B153" s="64" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="C153" s="75" t="s">
-        <v>239</v>
+        <v>202</v>
       </c>
       <c r="D153" s="119" t="s">
-        <v>147</v>
+        <v>112</v>
       </c>
       <c r="E153" s="64" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="F153" s="120">
         <v>63.59657</v>
@@ -32552,19 +32552,19 @@
     </row>
     <row r="154" spans="1:117" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A154" s="64" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="B154" s="64" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="C154" s="75" t="s">
-        <v>240</v>
+        <v>203</v>
       </c>
       <c r="D154" s="119" t="s">
-        <v>148</v>
+        <v>113</v>
       </c>
       <c r="E154" s="64" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="F154" s="120">
         <v>63.498575000000002</v>
@@ -32754,19 +32754,19 @@
     </row>
     <row r="155" spans="1:117" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A155" s="64" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="B155" s="64" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="C155" s="75" t="s">
-        <v>241</v>
+        <v>204</v>
       </c>
       <c r="D155" s="119" t="s">
-        <v>149</v>
+        <v>114</v>
       </c>
       <c r="E155" s="64" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="F155" s="120">
         <v>62.986149999999995</v>
@@ -32956,19 +32956,19 @@
     </row>
     <row r="156" spans="1:117" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A156" s="64" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="B156" s="64" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="C156" s="75" t="s">
-        <v>242</v>
+        <v>205</v>
       </c>
       <c r="D156" s="119" t="s">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="E156" s="64" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="F156" s="120">
         <v>63.216383333333333</v>
@@ -33158,19 +33158,19 @@
     </row>
     <row r="157" spans="1:117" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A157" s="64" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="B157" s="64" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="C157" s="75" t="s">
-        <v>243</v>
+        <v>206</v>
       </c>
       <c r="D157" s="119" t="s">
-        <v>151</v>
+        <v>116</v>
       </c>
       <c r="E157" s="64" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="F157" s="120">
         <v>63.108587499999999</v>
@@ -33360,19 +33360,19 @@
     </row>
     <row r="158" spans="1:117" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A158" s="64" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="B158" s="64" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="C158" s="75" t="s">
-        <v>219</v>
+        <v>184</v>
       </c>
       <c r="D158" s="119" t="s">
-        <v>220</v>
+        <v>185</v>
       </c>
       <c r="E158" s="64" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="F158" s="120">
         <v>63.421571428571433</v>
@@ -33562,19 +33562,19 @@
     </row>
     <row r="159" spans="1:117" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A159" s="64" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="B159" s="64" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="C159" s="75" t="s">
-        <v>221</v>
+        <v>186</v>
       </c>
       <c r="D159" s="119" t="s">
-        <v>222</v>
+        <v>187</v>
       </c>
       <c r="E159" s="64" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="F159" s="120">
         <v>63.878066666666676</v>
@@ -33764,19 +33764,19 @@
     </row>
     <row r="160" spans="1:117" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A160" s="64" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="B160" s="64" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="C160" s="75" t="s">
-        <v>244</v>
+        <v>207</v>
       </c>
       <c r="D160" s="119" t="s">
-        <v>152</v>
+        <v>117</v>
       </c>
       <c r="E160" s="64" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="F160" s="120">
         <v>63.710383333333333</v>
@@ -33966,19 +33966,19 @@
     </row>
     <row r="161" spans="1:117" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A161" s="64" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="B161" s="64" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="C161" s="75" t="s">
-        <v>245</v>
+        <v>208</v>
       </c>
       <c r="D161" s="119" t="s">
-        <v>153</v>
+        <v>118</v>
       </c>
       <c r="E161" s="64" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="F161" s="120">
         <v>63.746966666666673</v>
@@ -34168,19 +34168,19 @@
     </row>
     <row r="162" spans="1:117" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A162" s="64" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="B162" s="64" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="C162" s="75" t="s">
-        <v>246</v>
+        <v>209</v>
       </c>
       <c r="D162" s="119" t="s">
-        <v>154</v>
+        <v>119</v>
       </c>
       <c r="E162" s="64" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="F162" s="120">
         <v>63.406000000000006</v>
@@ -34370,19 +34370,19 @@
     </row>
     <row r="163" spans="1:117" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A163" s="64" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="B163" s="64" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="C163" s="75" t="s">
-        <v>247</v>
+        <v>210</v>
       </c>
       <c r="D163" s="119" t="s">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="E163" s="64" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="F163" s="120">
         <v>63.887550000000012</v>
@@ -34572,19 +34572,19 @@
     </row>
     <row r="164" spans="1:117" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A164" s="64" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="B164" s="64" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="C164" s="75" t="s">
-        <v>248</v>
+        <v>211</v>
       </c>
       <c r="D164" s="119" t="s">
-        <v>156</v>
+        <v>121</v>
       </c>
       <c r="E164" s="64" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="F164" s="120">
         <v>63.914116666666665</v>
@@ -34774,19 +34774,19 @@
     </row>
     <row r="165" spans="1:117" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A165" s="64" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="B165" s="64" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="C165" s="75" t="s">
-        <v>249</v>
+        <v>212</v>
       </c>
       <c r="D165" s="119" t="s">
-        <v>157</v>
+        <v>122</v>
       </c>
       <c r="E165" s="64" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="F165" s="120">
         <v>63.575855999999987</v>
@@ -34976,19 +34976,19 @@
     </row>
     <row r="166" spans="1:117" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A166" s="64" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="B166" s="64" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="C166" s="76" t="s">
-        <v>237</v>
+        <v>200</v>
       </c>
       <c r="D166" s="119" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="E166" s="64" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="F166" s="120">
         <v>50.397670000000005</v>
@@ -35178,19 +35178,19 @@
     </row>
     <row r="167" spans="1:117" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A167" s="64" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="B167" s="64" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="C167" s="75" t="s">
-        <v>238</v>
+        <v>201</v>
       </c>
       <c r="D167" s="119" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="E167" s="64" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="F167" s="120">
         <v>50.223366666666664</v>
@@ -35380,19 +35380,19 @@
     </row>
     <row r="168" spans="1:117" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A168" s="64" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="B168" s="64" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="C168" s="75" t="s">
-        <v>239</v>
+        <v>202</v>
       </c>
       <c r="D168" s="119" t="s">
-        <v>147</v>
+        <v>112</v>
       </c>
       <c r="E168" s="64" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="F168" s="120">
         <v>50.361170000000001</v>
@@ -35582,19 +35582,19 @@
     </row>
     <row r="169" spans="1:117" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A169" s="64" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="B169" s="64" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="C169" s="75" t="s">
-        <v>240</v>
+        <v>203</v>
       </c>
       <c r="D169" s="119" t="s">
-        <v>148</v>
+        <v>113</v>
       </c>
       <c r="E169" s="64" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="F169" s="120">
         <v>50.428149999999995</v>
@@ -35784,19 +35784,19 @@
     </row>
     <row r="170" spans="1:117" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A170" s="64" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="B170" s="64" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="C170" s="75" t="s">
-        <v>242</v>
+        <v>205</v>
       </c>
       <c r="D170" s="119" t="s">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="E170" s="64" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="F170" s="120">
         <v>50.491849999999999</v>
@@ -35986,19 +35986,19 @@
     </row>
     <row r="171" spans="1:117" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A171" s="64" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="B171" s="64" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="C171" s="75" t="s">
-        <v>237</v>
+        <v>200</v>
       </c>
       <c r="D171" s="119" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="E171" s="64" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="F171" s="120">
         <v>75.180989999999994</v>
@@ -36188,19 +36188,19 @@
     </row>
     <row r="172" spans="1:117" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A172" s="64" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="B172" s="64" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="C172" s="75" t="s">
-        <v>238</v>
+        <v>201</v>
       </c>
       <c r="D172" s="119" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="E172" s="64" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="F172" s="120">
         <v>75.360566666666656</v>
@@ -36390,19 +36390,19 @@
     </row>
     <row r="173" spans="1:117" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A173" s="64" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="B173" s="64" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="C173" s="75" t="s">
-        <v>239</v>
+        <v>202</v>
       </c>
       <c r="D173" s="119" t="s">
-        <v>147</v>
+        <v>112</v>
       </c>
       <c r="E173" s="64" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="F173" s="120">
         <v>75.496837499999998</v>
@@ -36592,19 +36592,19 @@
     </row>
     <row r="174" spans="1:117" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A174" s="64" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="B174" s="64" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="C174" s="75" t="s">
-        <v>240</v>
+        <v>203</v>
       </c>
       <c r="D174" s="119" t="s">
-        <v>148</v>
+        <v>113</v>
       </c>
       <c r="E174" s="64" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="F174" s="120">
         <v>75.349975000000001</v>
@@ -36794,19 +36794,19 @@
     </row>
     <row r="175" spans="1:117" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A175" s="64" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="B175" s="64" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="C175" s="75" t="s">
-        <v>241</v>
+        <v>204</v>
       </c>
       <c r="D175" s="119" t="s">
-        <v>149</v>
+        <v>114</v>
       </c>
       <c r="E175" s="64" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="F175" s="120">
         <v>75.426900000000018</v>
@@ -36996,19 +36996,19 @@
     </row>
     <row r="176" spans="1:117" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A176" s="64" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="B176" s="64" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="C176" s="75" t="s">
-        <v>242</v>
+        <v>205</v>
       </c>
       <c r="D176" s="119" t="s">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="E176" s="64" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="F176" s="120">
         <v>75.215016666666656</v>
@@ -37198,19 +37198,19 @@
     </row>
     <row r="177" spans="1:134" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A177" s="64" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="B177" s="64" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="C177" s="75" t="s">
-        <v>219</v>
+        <v>184</v>
       </c>
       <c r="D177" s="119" t="s">
-        <v>220</v>
+        <v>185</v>
       </c>
       <c r="E177" s="64" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="F177" s="120">
         <v>75.078666666666663</v>
@@ -37400,19 +37400,19 @@
     </row>
     <row r="178" spans="1:134" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A178" s="64" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="B178" s="64" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="C178" s="75" t="s">
-        <v>221</v>
+        <v>186</v>
       </c>
       <c r="D178" s="119" t="s">
-        <v>222</v>
+        <v>187</v>
       </c>
       <c r="E178" s="64" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="F178" s="120">
         <v>75.584733333333318</v>
@@ -37602,19 +37602,19 @@
     </row>
     <row r="179" spans="1:134" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A179" s="64" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="B179" s="64" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="C179" s="75" t="s">
-        <v>244</v>
+        <v>207</v>
       </c>
       <c r="D179" s="119" t="s">
-        <v>152</v>
+        <v>117</v>
       </c>
       <c r="E179" s="64" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="F179" s="120">
         <v>75.373316666666668</v>
@@ -37804,19 +37804,19 @@
     </row>
     <row r="180" spans="1:134" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A180" s="64" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="B180" s="64" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="C180" s="75" t="s">
-        <v>245</v>
+        <v>208</v>
       </c>
       <c r="D180" s="119" t="s">
-        <v>153</v>
+        <v>118</v>
       </c>
       <c r="E180" s="64" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="F180" s="120">
         <v>75.142116666666666</v>
@@ -38006,19 +38006,19 @@
     </row>
     <row r="181" spans="1:134" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A181" s="64" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="B181" s="64" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="C181" s="75" t="s">
-        <v>246</v>
+        <v>209</v>
       </c>
       <c r="D181" s="119" t="s">
-        <v>154</v>
+        <v>119</v>
       </c>
       <c r="E181" s="64" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="F181" s="120">
         <v>75.13776</v>
@@ -38208,19 +38208,19 @@
     </row>
     <row r="182" spans="1:134" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A182" s="64" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="B182" s="64" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="C182" s="75" t="s">
-        <v>247</v>
+        <v>210</v>
       </c>
       <c r="D182" s="119" t="s">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="E182" s="64" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="F182" s="120">
         <v>75.194406666666652</v>
@@ -38410,19 +38410,19 @@
     </row>
     <row r="183" spans="1:134" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A183" s="64" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="B183" s="64" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="C183" s="75" t="s">
-        <v>248</v>
+        <v>211</v>
       </c>
       <c r="D183" s="119" t="s">
-        <v>156</v>
+        <v>121</v>
       </c>
       <c r="E183" s="64" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="F183" s="120">
         <v>75.742725000000007</v>
@@ -38612,19 +38612,19 @@
     </row>
     <row r="184" spans="1:134" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A184" s="64" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="B184" s="64" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="C184" s="75" t="s">
-        <v>249</v>
+        <v>212</v>
       </c>
       <c r="D184" s="119" t="s">
-        <v>157</v>
+        <v>122</v>
       </c>
       <c r="E184" s="64" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="F184" s="120">
         <v>75.71844999999999</v>
@@ -38814,19 +38814,19 @@
     </row>
     <row r="185" spans="1:134" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A185" s="64" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="B185" s="64" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="C185" s="75" t="s">
-        <v>241</v>
+        <v>204</v>
       </c>
       <c r="D185" s="119" t="s">
-        <v>149</v>
+        <v>114</v>
       </c>
       <c r="E185" s="64" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="F185" s="120">
         <v>45.913425000000004</v>
@@ -39013,19 +39013,19 @@
     </row>
     <row r="186" spans="1:134" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A186" s="64" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="B186" s="64" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="C186" s="75" t="s">
-        <v>219</v>
+        <v>184</v>
       </c>
       <c r="D186" s="119" t="s">
-        <v>220</v>
+        <v>185</v>
       </c>
       <c r="E186" s="64" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="F186" s="120">
         <v>46.265542857142862</v>
@@ -39212,19 +39212,19 @@
     </row>
     <row r="187" spans="1:134" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A187" s="64" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="B187" s="64" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="C187" s="75" t="s">
-        <v>221</v>
+        <v>186</v>
       </c>
       <c r="D187" s="119" t="s">
-        <v>222</v>
+        <v>187</v>
       </c>
       <c r="E187" s="64" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="F187" s="120">
         <v>46.226633333333332</v>
@@ -39411,19 +39411,19 @@
     </row>
     <row r="188" spans="1:134" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A188" s="64" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="B188" s="64" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="C188" s="75" t="s">
-        <v>244</v>
+        <v>207</v>
       </c>
       <c r="D188" s="119" t="s">
-        <v>152</v>
+        <v>117</v>
       </c>
       <c r="E188" s="64" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="F188" s="120">
         <v>46.459916666666665</v>
@@ -39610,17 +39610,17 @@
     </row>
     <row r="189" spans="1:134" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A189" s="9" t="s">
-        <v>166</v>
+        <v>131</v>
       </c>
       <c r="B189" s="124" t="s">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="C189" s="125" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="D189" s="126"/>
       <c r="E189" s="9" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="F189" s="127">
         <v>60.086492913902383</v>
@@ -39708,7 +39708,7 @@
       <c r="BE189" s="94"/>
       <c r="BF189" s="94"/>
       <c r="BG189" s="129" t="s">
-        <v>169</v>
+        <v>134</v>
       </c>
       <c r="BH189" s="129"/>
       <c r="BI189" s="129"/>
@@ -39809,17 +39809,17 @@
     </row>
     <row r="190" spans="1:134" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A190" s="9" t="s">
-        <v>166</v>
+        <v>131</v>
       </c>
       <c r="B190" s="124" t="s">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="C190" s="125" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="D190" s="126"/>
       <c r="E190" s="9" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="F190" s="127">
         <v>49.528151172934258</v>
@@ -40008,19 +40008,19 @@
     </row>
     <row r="191" spans="1:134" s="47" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A191" s="47" t="s">
-        <v>171</v>
+        <v>136</v>
       </c>
       <c r="B191" s="47" t="s">
-        <v>250</v>
+        <v>213</v>
       </c>
       <c r="C191" s="147" t="s">
-        <v>170</v>
+        <v>135</v>
       </c>
       <c r="D191" s="148" t="s">
-        <v>172</v>
+        <v>137</v>
       </c>
       <c r="E191" s="148" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
       <c r="F191" s="48"/>
       <c r="G191" s="137"/>
@@ -40319,19 +40319,19 @@
     </row>
     <row r="192" spans="1:134" s="47" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A192" s="47" t="s">
-        <v>171</v>
+        <v>136</v>
       </c>
       <c r="B192" s="151" t="s">
-        <v>251</v>
+        <v>214</v>
       </c>
       <c r="C192" s="147" t="s">
-        <v>170</v>
+        <v>135</v>
       </c>
       <c r="D192" s="148" t="s">
-        <v>172</v>
+        <v>137</v>
       </c>
       <c r="E192" s="152" t="s">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c r="F192" s="48"/>
       <c r="G192" s="137"/>
@@ -40638,13 +40638,13 @@
     </row>
     <row r="193" spans="1:150" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A193" s="45" t="s">
-        <v>173</v>
+        <v>138</v>
       </c>
       <c r="B193" s="132" t="s">
-        <v>255</v>
+        <v>218</v>
       </c>
       <c r="C193" s="133" t="s">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="D193" s="134"/>
       <c r="E193" s="134">
@@ -40947,16 +40947,16 @@
     </row>
     <row r="194" spans="1:150" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A194" s="45" t="s">
-        <v>173</v>
+        <v>138</v>
       </c>
       <c r="B194" s="132" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="C194" s="133" t="s">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="D194" s="45" t="s">
-        <v>252</v>
+        <v>215</v>
       </c>
       <c r="E194" s="45">
         <v>9</v>
@@ -41258,16 +41258,16 @@
     </row>
     <row r="195" spans="1:150" s="47" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A195" s="47" t="s">
-        <v>173</v>
+        <v>138</v>
       </c>
       <c r="B195" s="135" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="C195" s="136" t="s">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="D195" s="47" t="s">
-        <v>253</v>
+        <v>216</v>
       </c>
       <c r="E195" s="47">
         <v>9</v>
@@ -41569,16 +41569,16 @@
     </row>
     <row r="196" spans="1:150" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A196" s="45" t="s">
-        <v>173</v>
+        <v>138</v>
       </c>
       <c r="B196" s="45" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="C196" s="133" t="s">
-        <v>178</v>
+        <v>143</v>
       </c>
       <c r="D196" s="138" t="s">
-        <v>176</v>
+        <v>141</v>
       </c>
       <c r="E196" s="45">
         <v>61</v>
@@ -41706,16 +41706,16 @@
     </row>
     <row r="197" spans="1:150" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A197" s="45" t="s">
-        <v>173</v>
+        <v>138</v>
       </c>
       <c r="B197" s="45" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="C197" s="133" t="s">
-        <v>179</v>
+        <v>144</v>
       </c>
       <c r="D197" s="45" t="s">
-        <v>177</v>
+        <v>142</v>
       </c>
       <c r="E197" s="45">
         <v>13</v>
@@ -41851,13 +41851,13 @@
     </row>
     <row r="198" spans="1:150" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A198" s="45" t="s">
-        <v>173</v>
+        <v>138</v>
       </c>
       <c r="B198" s="45" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="C198" s="133" t="s">
-        <v>206</v>
+        <v>171</v>
       </c>
       <c r="E198" s="45">
         <v>36</v>
@@ -42160,16 +42160,16 @@
     </row>
     <row r="199" spans="1:150" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A199" s="6" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="B199" s="54" t="s">
-        <v>256</v>
+        <v>219</v>
       </c>
       <c r="C199" s="77" t="s">
-        <v>182</v>
+        <v>147</v>
       </c>
       <c r="E199" s="6" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="F199" s="54">
         <v>11.32</v>
@@ -42289,16 +42289,16 @@
     </row>
     <row r="200" spans="1:150" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A200" s="6" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="B200" s="54" t="s">
-        <v>181</v>
+        <v>146</v>
       </c>
       <c r="C200" s="77" t="s">
-        <v>182</v>
+        <v>147</v>
       </c>
       <c r="E200" s="6" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="F200" s="54">
         <v>70.52</v>
@@ -42372,16 +42372,16 @@
     </row>
     <row r="201" spans="1:150" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A201" s="6" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="B201" s="54" t="s">
-        <v>184</v>
+        <v>149</v>
       </c>
       <c r="C201" s="77" t="s">
-        <v>182</v>
+        <v>147</v>
       </c>
       <c r="E201" s="6" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="F201" s="54">
         <v>52.48</v>
@@ -42542,16 +42542,16 @@
     </row>
     <row r="202" spans="1:150" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A202" s="6" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="B202" s="54" t="s">
-        <v>183</v>
+        <v>148</v>
       </c>
       <c r="C202" s="77" t="s">
-        <v>182</v>
+        <v>147</v>
       </c>
       <c r="E202" s="6" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="F202" s="54">
         <v>47.54</v>
@@ -42687,7 +42687,7 @@
       <c r="DD202" s="54"/>
       <c r="DE202" s="54"/>
       <c r="DF202" s="89" t="s">
-        <v>259</v>
+        <v>222</v>
       </c>
       <c r="DG202" s="54"/>
       <c r="DH202" s="54"/>
@@ -42725,7 +42725,7 @@
       <c r="EN202" s="54"/>
       <c r="EO202" s="54"/>
       <c r="EP202" s="54" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
       <c r="EQ202" s="54"/>
       <c r="ER202" s="54"/>
@@ -42734,16 +42734,16 @@
     </row>
     <row r="203" spans="1:150" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A203" s="6" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="B203" s="139" t="s">
-        <v>186</v>
+        <v>151</v>
       </c>
       <c r="C203" s="77" t="s">
-        <v>182</v>
+        <v>147</v>
       </c>
       <c r="E203" s="6" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="F203" s="7"/>
       <c r="G203" s="7"/>
@@ -42874,7 +42874,7 @@
       <c r="DD203" s="139"/>
       <c r="DE203" s="139"/>
       <c r="DF203" s="139" t="s">
-        <v>188</v>
+        <v>153</v>
       </c>
       <c r="DG203" s="139"/>
       <c r="DH203" s="139"/>
@@ -42885,16 +42885,16 @@
     </row>
     <row r="204" spans="1:150" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A204" s="6" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="B204" s="139" t="s">
-        <v>187</v>
+        <v>152</v>
       </c>
       <c r="C204" s="77" t="s">
-        <v>182</v>
+        <v>147</v>
       </c>
       <c r="E204" s="6" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="F204" s="7"/>
       <c r="G204" s="7"/>
@@ -43066,16 +43066,16 @@
     </row>
     <row r="205" spans="1:150" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A205" s="6" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="B205" s="139" t="s">
-        <v>185</v>
+        <v>150</v>
       </c>
       <c r="C205" s="77" t="s">
-        <v>182</v>
+        <v>147</v>
       </c>
       <c r="E205" s="6" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="F205" s="7"/>
       <c r="G205" s="7"/>
@@ -43257,13 +43257,13 @@
     </row>
     <row r="206" spans="1:150" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A206" s="6" t="s">
-        <v>191</v>
+        <v>156</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="C206" s="70" t="s">
-        <v>192</v>
+        <v>157</v>
       </c>
       <c r="E206" s="6">
         <v>8</v>
@@ -43457,13 +43457,13 @@
     </row>
     <row r="207" spans="1:150" s="59" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A207" s="59" t="s">
-        <v>191</v>
+        <v>156</v>
       </c>
       <c r="B207" s="59" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="C207" s="78" t="s">
-        <v>192</v>
+        <v>157</v>
       </c>
       <c r="E207" s="59">
         <v>10</v>
@@ -43657,13 +43657,13 @@
     </row>
     <row r="208" spans="1:150" x14ac:dyDescent="0.3">
       <c r="A208" s="6" t="s">
-        <v>191</v>
+        <v>156</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="C208" s="70" t="s">
-        <v>193</v>
+        <v>158</v>
       </c>
       <c r="E208" s="4">
         <v>17</v>
@@ -43780,13 +43780,13 @@
     </row>
     <row r="209" spans="1:141" x14ac:dyDescent="0.3">
       <c r="A209" s="6" t="s">
-        <v>191</v>
+        <v>156</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>190</v>
+        <v>155</v>
       </c>
       <c r="C209" s="79" t="s">
-        <v>194</v>
+        <v>159</v>
       </c>
       <c r="E209" s="4">
         <v>47</v>
@@ -44047,13 +44047,13 @@
     </row>
     <row r="210" spans="1:141" x14ac:dyDescent="0.3">
       <c r="A210" s="6" t="s">
-        <v>191</v>
+        <v>156</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="C210" s="79" t="s">
-        <v>194</v>
+        <v>159</v>
       </c>
       <c r="E210" s="4">
         <v>22</v>
@@ -44314,13 +44314,13 @@
     </row>
     <row r="211" spans="1:141" x14ac:dyDescent="0.3">
       <c r="A211" s="4" t="s">
-        <v>195</v>
+        <v>160</v>
       </c>
       <c r="B211" s="55" t="s">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="C211" s="79" t="s">
-        <v>196</v>
+        <v>161</v>
       </c>
       <c r="H211" s="131"/>
       <c r="K211" s="131"/>
@@ -44569,13 +44569,13 @@
     </row>
     <row r="212" spans="1:141" x14ac:dyDescent="0.3">
       <c r="A212" s="6" t="s">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="C212" s="80" t="s">
-        <v>208</v>
+        <v>173</v>
       </c>
       <c r="E212" s="4">
         <v>17</v>
@@ -44721,13 +44721,13 @@
     </row>
     <row r="213" spans="1:141" x14ac:dyDescent="0.3">
       <c r="A213" s="6" t="s">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="C213" s="80" t="s">
-        <v>208</v>
+        <v>173</v>
       </c>
       <c r="E213" s="4">
         <v>17</v>
@@ -44900,13 +44900,13 @@
     </row>
     <row r="214" spans="1:141" x14ac:dyDescent="0.3">
       <c r="A214" s="6" t="s">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="C214" s="80" t="s">
-        <v>208</v>
+        <v>173</v>
       </c>
       <c r="E214" s="4">
         <v>17</v>
@@ -45052,10 +45052,10 @@
     </row>
     <row r="215" spans="1:141" x14ac:dyDescent="0.3">
       <c r="A215" s="6" t="s">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="C215" s="81">
         <v>40917</v>
@@ -45234,10 +45234,10 @@
     </row>
     <row r="216" spans="1:141" x14ac:dyDescent="0.3">
       <c r="A216" s="6" t="s">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="C216" s="81">
         <v>40917</v>
@@ -45416,10 +45416,10 @@
     </row>
     <row r="217" spans="1:141" x14ac:dyDescent="0.3">
       <c r="A217" s="6" t="s">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="C217" s="81">
         <v>40917</v>
@@ -45595,10 +45595,10 @@
     </row>
     <row r="218" spans="1:141" x14ac:dyDescent="0.3">
       <c r="A218" s="6" t="s">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="C218" s="81">
         <v>50717</v>
@@ -45777,10 +45777,10 @@
     </row>
     <row r="219" spans="1:141" x14ac:dyDescent="0.3">
       <c r="A219" s="6" t="s">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="C219" s="81">
         <v>50717</v>
@@ -45959,10 +45959,10 @@
     </row>
     <row r="220" spans="1:141" x14ac:dyDescent="0.3">
       <c r="A220" s="6" t="s">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="C220" s="81">
         <v>50717</v>
@@ -46138,13 +46138,13 @@
     </row>
     <row r="221" spans="1:141" x14ac:dyDescent="0.3">
       <c r="A221" s="6" t="s">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="C221" s="82" t="s">
-        <v>210</v>
+        <v>175</v>
       </c>
       <c r="E221" s="4">
         <v>11</v>
@@ -46290,13 +46290,13 @@
     </row>
     <row r="222" spans="1:141" x14ac:dyDescent="0.3">
       <c r="A222" s="6" t="s">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="C222" s="82" t="s">
-        <v>210</v>
+        <v>175</v>
       </c>
       <c r="E222" s="4">
         <v>11</v>
@@ -46474,13 +46474,13 @@
     </row>
     <row r="223" spans="1:141" x14ac:dyDescent="0.3">
       <c r="A223" s="6" t="s">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="C223" s="82" t="s">
-        <v>210</v>
+        <v>175</v>
       </c>
       <c r="E223" s="4">
         <v>11</v>
@@ -46653,10 +46653,10 @@
     </row>
     <row r="224" spans="1:141" x14ac:dyDescent="0.3">
       <c r="A224" s="6" t="s">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="C224" s="81">
         <v>231017</v>
@@ -46805,10 +46805,10 @@
     </row>
     <row r="225" spans="1:152" x14ac:dyDescent="0.3">
       <c r="A225" s="6" t="s">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="C225" s="81">
         <v>231017</v>
@@ -46987,10 +46987,10 @@
     </row>
     <row r="226" spans="1:152" x14ac:dyDescent="0.3">
       <c r="A226" s="6" t="s">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="C226" s="83">
         <v>270118</v>
@@ -47139,13 +47139,13 @@
     </row>
     <row r="227" spans="1:152" x14ac:dyDescent="0.3">
       <c r="A227" s="6" t="s">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="C227" s="83" t="s">
-        <v>197</v>
+        <v>162</v>
       </c>
       <c r="E227" s="4">
         <v>16</v>
@@ -47321,10 +47321,10 @@
     </row>
     <row r="228" spans="1:152" x14ac:dyDescent="0.3">
       <c r="A228" s="6" t="s">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="C228" s="83">
         <v>270118</v>
@@ -47500,10 +47500,10 @@
     </row>
     <row r="229" spans="1:152" x14ac:dyDescent="0.3">
       <c r="A229" s="6" t="s">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="C229" s="81">
         <v>200318</v>
@@ -47647,10 +47647,10 @@
     </row>
     <row r="230" spans="1:152" x14ac:dyDescent="0.3">
       <c r="A230" s="6" t="s">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="C230" s="81">
         <v>200318</v>
@@ -47824,10 +47824,10 @@
     </row>
     <row r="231" spans="1:152" x14ac:dyDescent="0.3">
       <c r="A231" s="6" t="s">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="C231" s="81">
         <v>200318</v>
@@ -47998,13 +47998,13 @@
     </row>
     <row r="232" spans="1:152" x14ac:dyDescent="0.3">
       <c r="A232" s="6" t="s">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="C232" s="84" t="s">
-        <v>225</v>
+        <v>190</v>
       </c>
       <c r="E232" s="4">
         <v>13</v>
@@ -48175,13 +48175,13 @@
     </row>
     <row r="233" spans="1:152" x14ac:dyDescent="0.3">
       <c r="A233" s="6" t="s">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="C233" s="84" t="s">
-        <v>225</v>
+        <v>190</v>
       </c>
       <c r="E233" s="4">
         <v>13</v>
@@ -48352,10 +48352,10 @@
     </row>
     <row r="234" spans="1:152" x14ac:dyDescent="0.3">
       <c r="A234" s="6" t="s">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="C234" s="83">
         <v>190816</v>
@@ -48504,10 +48504,10 @@
     </row>
     <row r="235" spans="1:152" x14ac:dyDescent="0.3">
       <c r="A235" s="6" t="s">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="C235" s="83">
         <v>190816</v>
@@ -48681,10 +48681,10 @@
     </row>
     <row r="236" spans="1:152" x14ac:dyDescent="0.3">
       <c r="A236" s="6" t="s">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="C236" s="83">
         <v>190816</v>
@@ -48855,13 +48855,13 @@
     </row>
     <row r="237" spans="1:152" x14ac:dyDescent="0.3">
       <c r="A237" s="6" t="s">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="C237" s="83" t="s">
-        <v>223</v>
+        <v>188</v>
       </c>
       <c r="E237" s="4">
         <v>9</v>
@@ -49062,13 +49062,13 @@
     </row>
     <row r="238" spans="1:152" x14ac:dyDescent="0.3">
       <c r="A238" s="6" t="s">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="C238" s="83" t="s">
-        <v>223</v>
+        <v>188</v>
       </c>
       <c r="E238" s="4">
         <v>9</v>
@@ -49274,13 +49274,13 @@
     </row>
     <row r="239" spans="1:152" x14ac:dyDescent="0.3">
       <c r="A239" s="6" t="s">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="C239" s="83" t="s">
-        <v>223</v>
+        <v>188</v>
       </c>
       <c r="E239" s="4">
         <v>9</v>
@@ -49453,13 +49453,13 @@
     </row>
     <row r="240" spans="1:152" x14ac:dyDescent="0.3">
       <c r="A240" s="6" t="s">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="B240" s="58" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="C240" s="80" t="s">
-        <v>207</v>
+        <v>172</v>
       </c>
       <c r="E240" s="4">
         <v>10</v>
@@ -49635,13 +49635,13 @@
     </row>
     <row r="241" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A241" s="6" t="s">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="C241" s="80" t="s">
-        <v>207</v>
+        <v>172</v>
       </c>
       <c r="E241" s="4">
         <v>10</v>
@@ -49817,13 +49817,13 @@
     </row>
     <row r="242" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A242" s="6" t="s">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="B242" s="58" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="C242" s="80" t="s">
-        <v>207</v>
+        <v>172</v>
       </c>
       <c r="E242" s="4">
         <v>10</v>
@@ -49996,13 +49996,13 @@
     </row>
     <row r="243" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A243" s="6" t="s">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="B243" s="58" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="C243" s="80" t="s">
-        <v>209</v>
+        <v>174</v>
       </c>
       <c r="E243" s="4">
         <v>8</v>
@@ -50233,16 +50233,16 @@
     </row>
     <row r="244" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A244" s="6" t="s">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="B244" s="58" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="C244" s="80" t="s">
-        <v>209</v>
+        <v>174</v>
       </c>
       <c r="D244" s="4" t="s">
-        <v>254</v>
+        <v>217</v>
       </c>
       <c r="E244" s="4">
         <v>8</v>
@@ -50450,13 +50450,13 @@
     </row>
     <row r="245" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A245" s="6" t="s">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="C245" s="80" t="s">
-        <v>209</v>
+        <v>174</v>
       </c>
       <c r="E245" s="4">
         <v>8</v>
@@ -50629,13 +50629,13 @@
     </row>
     <row r="246" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A246" s="6" t="s">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="B246" s="58" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="C246" s="80" t="s">
-        <v>211</v>
+        <v>176</v>
       </c>
       <c r="E246" s="4">
         <v>10</v>
@@ -50836,16 +50836,16 @@
     </row>
     <row r="247" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A247" s="6" t="s">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="B247" s="58" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="C247" s="80" t="s">
-        <v>211</v>
+        <v>176</v>
       </c>
       <c r="D247" s="4" t="s">
-        <v>254</v>
+        <v>217</v>
       </c>
       <c r="E247" s="4">
         <v>10</v>
@@ -51046,13 +51046,13 @@
     </row>
     <row r="248" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A248" s="6" t="s">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="C248" s="80" t="s">
-        <v>211</v>
+        <v>176</v>
       </c>
       <c r="E248" s="4">
         <v>10</v>
@@ -51253,13 +51253,13 @@
     </row>
     <row r="249" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A249" s="6" t="s">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="B249" s="58" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="C249" s="85" t="s">
-        <v>224</v>
+        <v>189</v>
       </c>
       <c r="E249" s="4">
         <v>15</v>
@@ -51427,13 +51427,13 @@
     </row>
     <row r="250" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A250" s="6" t="s">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="C250" s="85" t="s">
-        <v>224</v>
+        <v>189</v>
       </c>
       <c r="E250" s="4">
         <v>15</v>
@@ -51659,13 +51659,13 @@
     </row>
     <row r="251" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A251" s="6" t="s">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="C251" s="85" t="s">
-        <v>224</v>
+        <v>189</v>
       </c>
       <c r="E251" s="4">
         <v>15</v>
@@ -51863,13 +51863,13 @@
     </row>
     <row r="252" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A252" s="6" t="s">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="C252" s="82" t="s">
-        <v>297</v>
+        <v>260</v>
       </c>
       <c r="E252" s="4">
         <v>18</v>
@@ -52045,13 +52045,13 @@
     </row>
     <row r="253" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A253" s="6" t="s">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="C253" s="82" t="s">
-        <v>297</v>
+        <v>260</v>
       </c>
       <c r="E253" s="4">
         <v>18</v>
@@ -52227,13 +52227,13 @@
     </row>
     <row r="254" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A254" s="6" t="s">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="C254" s="82" t="s">
-        <v>297</v>
+        <v>260</v>
       </c>
       <c r="E254" s="4">
         <v>18</v>
@@ -52406,13 +52406,13 @@
     </row>
     <row r="255" spans="1:162" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A255" s="6" t="s">
-        <v>200</v>
+        <v>165</v>
       </c>
       <c r="B255" s="57" t="s">
-        <v>201</v>
+        <v>166</v>
       </c>
       <c r="C255" s="81" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="D255" s="56"/>
       <c r="E255" s="4">
@@ -52608,13 +52608,13 @@
     </row>
     <row r="256" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A256" s="6" t="s">
-        <v>200</v>
+        <v>165</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="C256" s="81" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="E256" s="4">
         <v>3</v>
@@ -52751,13 +52751,13 @@
     </row>
     <row r="257" spans="1:145" x14ac:dyDescent="0.3">
       <c r="A257" s="6" t="s">
-        <v>200</v>
+        <v>165</v>
       </c>
       <c r="B257" s="57" t="s">
-        <v>201</v>
+        <v>166</v>
       </c>
       <c r="C257" s="79" t="s">
-        <v>199</v>
+        <v>164</v>
       </c>
       <c r="E257" s="4">
         <v>3</v>
@@ -52922,13 +52922,13 @@
     </row>
     <row r="258" spans="1:145" x14ac:dyDescent="0.3">
       <c r="A258" s="6" t="s">
-        <v>200</v>
+        <v>165</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="C258" s="79" t="s">
-        <v>199</v>
+        <v>164</v>
       </c>
       <c r="E258" s="4">
         <v>3</v>
